--- a/tests/gait_old/data/manual_gait_results.xlsx
+++ b/tests/gait_old/data/manual_gait_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait_old/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486AE97-B992-FA43-A27E-58A89D75B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D586696-144F-C047-B11F-F88D3869402E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="36980" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26860" yWindow="1240" windowWidth="36980" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>8.1022172595817149E-2</v>
+        <v>8.1022172595816233E-2</v>
       </c>
       <c r="M2">
         <v>0.99639999999999995</v>
@@ -1256,27 +1256,27 @@
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD38" si="5">2*SQRT(2 * M2 * L2 - L2 * L2)</f>
-        <v>0.78713758161276492</v>
+        <v>0.7871375816127606</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>1.2238070750705599E-2</v>
+        <v>1.2238070750705932E-2</v>
       </c>
       <c r="AF2">
         <f>AD2+AD3</f>
-        <v>1.5865132339762353</v>
+        <v>1.5865132339762271</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>-7.6372175674122023E-3</v>
+        <v>-7.6372175674117582E-3</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH33" si="6">AF2/P2</f>
-        <v>1.3445027406578267</v>
+        <v>1.3445027406578196</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>4.0476221104299048E-2</v>
+        <v>4.047622110429927E-2</v>
       </c>
       <c r="AJ2">
         <f t="shared" ref="AJ2:AJ33" si="7">60 / N2</f>
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>8.3677368746606029E-2</v>
+        <v>8.3677368746605155E-2</v>
       </c>
       <c r="M3">
         <v>0.99639999999999995</v>
@@ -1391,27 +1391,27 @@
       </c>
       <c r="AD3">
         <f t="shared" si="5"/>
-        <v>0.79937565236347052</v>
+        <v>0.79937565236346653</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="21">AD4-AD3</f>
-        <v>-1.9875288318117912E-2</v>
+        <v>-1.9875288318117579E-2</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="22">AD3+AD4</f>
-        <v>1.5788760164088231</v>
+        <v>1.5788760164088154</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="23">AF4-AF3</f>
-        <v>-0.20886248152357378</v>
+        <v>-0.20886248152356823</v>
       </c>
       <c r="AH3">
         <f t="shared" si="6"/>
-        <v>1.3849789617621258</v>
+        <v>1.3849789617621189</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" si="24">AH4-AH3</f>
-        <v>-0.16175259132886755</v>
+        <v>-0.16175259132886266</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="7"/>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>7.9389773441271433E-2</v>
+        <v>7.938977344127067E-2</v>
       </c>
       <c r="M4">
         <v>0.99639999999999995</v>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="AD4">
         <f t="shared" si="5"/>
-        <v>0.77950036404535261</v>
+        <v>0.77950036404534895</v>
       </c>
       <c r="AE4">
         <f t="shared" si="21"/>
-        <v>-0.18898719320545587</v>
+        <v>-0.18898719320545077</v>
       </c>
       <c r="AF4">
         <f t="shared" si="22"/>
-        <v>1.3700135348852494</v>
+        <v>1.3700135348852471</v>
       </c>
       <c r="AG4">
         <f t="shared" si="23"/>
-        <v>6.4672231611107245E-2</v>
+        <v>6.4672231611107467E-2</v>
       </c>
       <c r="AH4">
         <f t="shared" si="6"/>
-        <v>1.2232263704332582</v>
+        <v>1.2232263704332562</v>
       </c>
       <c r="AI4">
         <f t="shared" si="24"/>
-        <v>5.7743063938488604E-2</v>
+        <v>5.7743063938488826E-2</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="7"/>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>4.4750637699918008E-2</v>
+        <v>4.4750637699918237E-2</v>
       </c>
       <c r="M5">
         <v>0.99639999999999995</v>
@@ -1661,27 +1661,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>0.59051317083989674</v>
+        <v>0.59051317083989818</v>
       </c>
       <c r="AE5">
         <f t="shared" si="21"/>
-        <v>0.25365942481656301</v>
+        <v>0.25365942481655823</v>
       </c>
       <c r="AF5">
         <f t="shared" si="22"/>
-        <v>1.4346857664963566</v>
+        <v>1.4346857664963546</v>
       </c>
       <c r="AG5">
         <f t="shared" si="23"/>
-        <v>0.20981015753041521</v>
+        <v>0.20981015753041032</v>
       </c>
       <c r="AH5">
         <f t="shared" si="6"/>
-        <v>1.2809694343717468</v>
+        <v>1.280969434371745</v>
       </c>
       <c r="AI5">
         <f t="shared" si="24"/>
-        <v>0.18733049779501365</v>
+        <v>0.18733049779500921</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="7"/>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>9.381697490720621E-2</v>
+        <v>9.3816974907205433E-2</v>
       </c>
       <c r="M6">
         <v>0.99639999999999995</v>
@@ -1796,23 +1796,23 @@
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>0.84417259565645975</v>
+        <v>0.84417259565645641</v>
       </c>
       <c r="AE6">
         <f t="shared" si="21"/>
-        <v>-4.3849267286147686E-2</v>
+        <v>-4.3849267286147797E-2</v>
       </c>
       <c r="AF6">
         <f t="shared" si="22"/>
-        <v>1.6444959240267718</v>
+        <v>1.6444959240267649</v>
       </c>
       <c r="AG6">
         <f t="shared" si="23"/>
-        <v>-0.11769424559126196</v>
+        <v>-0.11769424559126174</v>
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
-        <v>1.4682999321667605</v>
+        <v>1.4682999321667543</v>
       </c>
       <c r="AI6">
         <f t="shared" si="24"/>
@@ -1860,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>8.3885012442772869E-2</v>
+        <v>8.3885012442772092E-2</v>
       </c>
       <c r="M7">
         <v>0.99639999999999995</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>0.80032332837031206</v>
+        <v>0.80032332837030862</v>
       </c>
       <c r="AE7">
         <f t="shared" si="21"/>
@@ -1939,19 +1939,19 @@
       </c>
       <c r="AF7">
         <f t="shared" si="22"/>
-        <v>1.5268016784355098</v>
+        <v>1.5268016784355032</v>
       </c>
       <c r="AG7">
         <f t="shared" si="23"/>
-        <v>5.1454775891288884E-2</v>
+        <v>5.1454775891289106E-2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
-        <v>1.3880015258504634</v>
+        <v>1.3880015258504572</v>
       </c>
       <c r="AI7">
         <f t="shared" si="24"/>
-        <v>4.6777068992080784E-2</v>
+        <v>4.6777068992081006E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="7"/>
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>6.8569055419233735E-2</v>
+        <v>6.8569055419233069E-2</v>
       </c>
       <c r="M8">
         <v>0.99639999999999995</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="15"/>
-        <v>1.9999999999999907E-2</v>
+        <v>3.9999999999999925E-2</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="16"/>
-        <v>-1.9999999999999962E-2</v>
+        <v>-3.999999999999998E-2</v>
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="Y8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB8">
         <f t="shared" si="4"/>
@@ -2066,27 +2066,27 @@
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>0.7264783500651979</v>
+        <v>0.72647835006519446</v>
       </c>
       <c r="AE8">
         <f t="shared" si="21"/>
-        <v>0.12529975419640293</v>
+        <v>0.12529975419640338</v>
       </c>
       <c r="AF8">
         <f t="shared" si="22"/>
-        <v>1.5782564543267987</v>
+        <v>1.5782564543267923</v>
       </c>
       <c r="AG8">
         <f t="shared" si="23"/>
-        <v>2.8093197407172754E-2</v>
+        <v>2.8093197407173198E-2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="6"/>
-        <v>1.4347785948425442</v>
+        <v>1.4347785948425382</v>
       </c>
       <c r="AI8">
         <f t="shared" si="24"/>
-        <v>2.5539270370156908E-2</v>
+        <v>2.5539270370157574E-2</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="7"/>
@@ -2113,7 +2113,7 @@
         <v>207</v>
       </c>
       <c r="G9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H9">
         <f t="shared" si="8"/>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>9.5605087006410558E-2</v>
+        <v>9.560508700640985E-2</v>
       </c>
       <c r="M9">
         <v>0.99639999999999995</v>
@@ -2153,19 +2153,19 @@
       </c>
       <c r="R9">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="S9">
         <f t="shared" si="15"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="U9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
@@ -2173,19 +2173,19 @@
       </c>
       <c r="W9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Y9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z9">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA9">
         <f t="shared" si="19"/>
@@ -2197,19 +2197,19 @@
       </c>
       <c r="AC9">
         <f t="shared" si="20"/>
-        <v>-1.9999999999999962E-2</v>
+        <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>0.85177810426160083</v>
+        <v>0.85177810426159783</v>
       </c>
       <c r="AE9">
         <f t="shared" si="21"/>
-        <v>-9.720655678923007E-2</v>
+        <v>-9.7206556789230181E-2</v>
       </c>
       <c r="AF9">
         <f t="shared" si="22"/>
-        <v>1.6063496517339715</v>
+        <v>1.6063496517339655</v>
       </c>
       <c r="AG9">
         <f t="shared" si="23"/>
@@ -2217,11 +2217,11 @@
       </c>
       <c r="AH9">
         <f t="shared" si="6"/>
-        <v>1.4603178652127011</v>
+        <v>1.4603178652126958</v>
       </c>
       <c r="AI9">
         <f t="shared" si="24"/>
-        <v>-1.2317274156959712E-2</v>
+        <v>-1.2317274156959934E-2</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="7"/>
@@ -2245,7 +2245,7 @@
         <v>228</v>
       </c>
       <c r="F10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10">
         <v>262</v>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>7.4191561014383303E-2</v>
+        <v>7.4191561014382665E-2</v>
       </c>
       <c r="M10">
         <v>0.99639999999999995</v>
@@ -2304,11 +2304,11 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="W10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
@@ -2320,43 +2320,43 @@
       </c>
       <c r="Z10">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB10">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AC10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>0.75457154747237076</v>
+        <v>0.75457154747236765</v>
       </c>
       <c r="AE10">
         <f t="shared" si="21"/>
-        <v>5.4697543395459292E-2</v>
+        <v>5.4697543395459403E-2</v>
       </c>
       <c r="AF10">
         <f t="shared" si="22"/>
-        <v>1.5638406383402008</v>
+        <v>1.5638406383401948</v>
       </c>
       <c r="AG10">
         <f t="shared" si="23"/>
-        <v>0.15135969889687506</v>
+        <v>0.15135969889687573</v>
       </c>
       <c r="AH10">
         <f t="shared" si="6"/>
-        <v>1.4480005910557414</v>
+        <v>1.4480005910557359</v>
       </c>
       <c r="AI10">
         <f t="shared" si="24"/>
-        <v>0.1401478693489584</v>
+        <v>0.14014786934895906</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="7"/>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <v>8.585958648641577E-2</v>
+        <v>8.5859586486415104E-2</v>
       </c>
       <c r="M11">
         <v>0.99639999999999995</v>
@@ -2471,23 +2471,23 @@
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>0.80926909086783005</v>
+        <v>0.80926909086782706</v>
       </c>
       <c r="AE11">
         <f t="shared" si="21"/>
-        <v>9.6662155501415659E-2</v>
+        <v>9.6662155501416325E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="22"/>
-        <v>1.7152003372370759</v>
+        <v>1.7152003372370705</v>
       </c>
       <c r="AG11">
         <f t="shared" si="23"/>
-        <v>2.89052040669453E-2</v>
+        <v>2.8905204066945522E-2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="6"/>
-        <v>1.5881484604046998</v>
+        <v>1.5881484604046949</v>
       </c>
       <c r="AI11">
         <f t="shared" si="24"/>
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>0.108911913199413</v>
+        <v>0.1089119131994124</v>
       </c>
       <c r="M12">
         <v>0.99639999999999995</v>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>0.90593124636924571</v>
+        <v>0.90593124636924338</v>
       </c>
       <c r="AE12">
         <f t="shared" si="21"/>
-        <v>-6.7756951434470247E-2</v>
+        <v>-6.7756951434470802E-2</v>
       </c>
       <c r="AF12">
         <f t="shared" si="22"/>
-        <v>1.7441055413040212</v>
+        <v>1.7441055413040161</v>
       </c>
       <c r="AG12">
         <f t="shared" si="23"/>
-        <v>-0.13107394454000354</v>
+        <v>-0.13107394454000421</v>
       </c>
       <c r="AH12">
         <f t="shared" si="6"/>
-        <v>1.614912538244464</v>
+        <v>1.6149125382444591</v>
       </c>
       <c r="AI12">
         <f t="shared" si="24"/>
-        <v>-0.12136476346296621</v>
+        <v>-0.12136476346296665</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="7"/>
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <v>9.2420507518202619E-2</v>
+        <v>9.2420507518201939E-2</v>
       </c>
       <c r="M13">
         <v>0.99639999999999995</v>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>0.83817429493477547</v>
+        <v>0.83817429493477258</v>
       </c>
       <c r="AE13">
         <f t="shared" si="21"/>
@@ -2749,19 +2749,19 @@
       </c>
       <c r="AF13">
         <f t="shared" si="22"/>
-        <v>1.6130315967640176</v>
+        <v>1.6130315967640119</v>
       </c>
       <c r="AG13">
         <f t="shared" si="23"/>
-        <v>-4.5779688685980924E-2</v>
+        <v>-4.5779688685981146E-2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="6"/>
-        <v>1.4935477747814978</v>
+        <v>1.4935477747814925</v>
       </c>
       <c r="AI13">
         <f t="shared" si="24"/>
-        <v>-4.2388600635167695E-2</v>
+        <v>-4.2388600635167917E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="7"/>
@@ -2805,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>7.840653572562041E-2</v>
+        <v>7.8406535725619814E-2</v>
       </c>
       <c r="M14">
         <v>0.99639999999999995</v>
@@ -2876,27 +2876,27 @@
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>0.77485730182924228</v>
+        <v>0.7748573018292394</v>
       </c>
       <c r="AE14">
         <f t="shared" si="21"/>
-        <v>1.7537304419552147E-2</v>
+        <v>1.7537304419551925E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="22"/>
-        <v>1.5672519080780367</v>
+        <v>1.5672519080780307</v>
       </c>
       <c r="AG14">
         <f t="shared" si="23"/>
-        <v>-3.1561036718501523E-2</v>
+        <v>-3.1561036718501745E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="6"/>
-        <v>1.4511591741463301</v>
+        <v>1.4511591741463246</v>
       </c>
       <c r="AI14">
         <f t="shared" si="24"/>
-        <v>-2.9223182146760562E-2</v>
+        <v>-2.9223182146760784E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="7"/>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>8.2156784549672193E-2</v>
+        <v>8.2156784549671541E-2</v>
       </c>
       <c r="M15">
         <v>0.99639999999999995</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>0.79239460624879443</v>
+        <v>0.79239460624879132</v>
       </c>
       <c r="AE15">
         <f t="shared" si="21"/>
@@ -3019,19 +3019,19 @@
       </c>
       <c r="AF15">
         <f t="shared" si="22"/>
-        <v>1.5356908713595352</v>
+        <v>1.535690871359529</v>
       </c>
       <c r="AG15">
         <f t="shared" si="23"/>
-        <v>-7.1168565524043048E-2</v>
+        <v>-7.1168565524043492E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="6"/>
-        <v>1.4219359919995695</v>
+        <v>1.4219359919995638</v>
       </c>
       <c r="AI15">
         <f t="shared" si="24"/>
-        <v>-6.5896819929669448E-2</v>
+        <v>-6.5896819929669892E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="7"/>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>7.1905205223898622E-2</v>
+        <v>7.1905205223897969E-2</v>
       </c>
       <c r="M16">
         <v>0.99639999999999995</v>
@@ -3146,15 +3146,15 @@
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>0.74329626511074076</v>
+        <v>0.74329626511073765</v>
       </c>
       <c r="AE16">
         <f t="shared" si="21"/>
-        <v>-2.207022438598949E-2</v>
+        <v>-2.2070224385989712E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="22"/>
-        <v>1.4645223058354921</v>
+        <v>1.4645223058354855</v>
       </c>
       <c r="AG16">
         <f t="shared" si="23"/>
@@ -3162,11 +3162,11 @@
       </c>
       <c r="AH16">
         <f t="shared" si="6"/>
-        <v>1.3560391720699001</v>
+        <v>1.3560391720698939</v>
       </c>
       <c r="AI16">
         <f t="shared" si="24"/>
-        <v>3.9114782574888984E-2</v>
+        <v>3.9114782574889206E-2</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="7"/>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>6.7545216115498033E-2</v>
+        <v>6.7545216115497381E-2</v>
       </c>
       <c r="M17">
         <v>0.99639999999999995</v>
@@ -3281,27 +3281,27 @@
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>0.72122604072475127</v>
+        <v>0.72122604072474794</v>
       </c>
       <c r="AE17">
         <f t="shared" si="21"/>
-        <v>0.12012034775266123</v>
+        <v>0.12012034775266134</v>
       </c>
       <c r="AF17">
         <f t="shared" si="22"/>
-        <v>1.5625724292021639</v>
+        <v>1.5625724292021572</v>
       </c>
       <c r="AG17">
         <f t="shared" si="23"/>
-        <v>5.8314824708736612E-2</v>
+        <v>5.8314824708737056E-2</v>
       </c>
       <c r="AH17">
         <f t="shared" si="6"/>
-        <v>1.3951539546447891</v>
+        <v>1.3951539546447831</v>
       </c>
       <c r="AI17">
         <f t="shared" si="24"/>
-        <v>2.6676969838457021E-2</v>
+        <v>2.6676969838457687E-2</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="7"/>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>9.315749455143349E-2</v>
+        <v>9.3157494551432754E-2</v>
       </c>
       <c r="M18">
         <v>0.99639999999999995</v>
@@ -3416,27 +3416,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>0.8413463884774125</v>
+        <v>0.84134638847740928</v>
       </c>
       <c r="AE18">
         <f t="shared" si="21"/>
-        <v>-6.1805523043924393E-2</v>
+        <v>-6.1805523043924282E-2</v>
       </c>
       <c r="AF18">
         <f t="shared" si="22"/>
-        <v>1.6208872539109005</v>
+        <v>1.6208872539108943</v>
       </c>
       <c r="AG18">
         <f t="shared" si="23"/>
-        <v>-0.12325745624007878</v>
+        <v>-0.12325745624007922</v>
       </c>
       <c r="AH18">
         <f t="shared" si="6"/>
-        <v>1.4218309244832461</v>
+        <v>1.4218309244832408</v>
       </c>
       <c r="AI18">
         <f t="shared" si="24"/>
-        <v>-0.10812057564919186</v>
+        <v>-0.10812057564919231</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="7"/>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <v>7.9398380710370794E-2</v>
+        <v>7.9398380710370101E-2</v>
       </c>
       <c r="M19">
         <v>0.99639999999999995</v>
@@ -3551,27 +3551,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>0.77954086543348811</v>
+        <v>0.779540865433485</v>
       </c>
       <c r="AE19">
         <f t="shared" si="21"/>
-        <v>-6.1451933196154496E-2</v>
+        <v>-6.145193319615494E-2</v>
       </c>
       <c r="AF19">
         <f t="shared" si="22"/>
-        <v>1.4976297976708217</v>
+        <v>1.4976297976708151</v>
       </c>
       <c r="AG19">
         <f t="shared" si="23"/>
-        <v>-0.14941780878604316</v>
+        <v>-0.14941780878604383</v>
       </c>
       <c r="AH19">
         <f t="shared" si="6"/>
-        <v>1.3137103488340542</v>
+        <v>1.3137103488340485</v>
       </c>
       <c r="AI19">
         <f t="shared" si="24"/>
-        <v>-0.13106825332109051</v>
+        <v>-0.13106825332109118</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="7"/>
@@ -3615,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="L20">
-        <v>6.6937773037784226E-2</v>
+        <v>6.6937773037783532E-2</v>
       </c>
       <c r="M20">
         <v>0.99639999999999995</v>
@@ -3686,27 +3686,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>0.71808893223733361</v>
+        <v>0.71808893223733006</v>
       </c>
       <c r="AE20">
         <f t="shared" si="21"/>
-        <v>-8.7965875589888665E-2</v>
+        <v>-8.7965875589888887E-2</v>
       </c>
       <c r="AF20">
         <f t="shared" si="22"/>
-        <v>1.3482119888847786</v>
+        <v>1.3482119888847712</v>
       </c>
       <c r="AG20">
         <f t="shared" si="23"/>
-        <v>0.1195122287654744</v>
+        <v>0.11951222876547507</v>
       </c>
       <c r="AH20">
         <f t="shared" si="6"/>
-        <v>1.1826420955129637</v>
+        <v>1.1826420955129573</v>
       </c>
       <c r="AI20">
         <f t="shared" si="24"/>
-        <v>0.12782595596047619</v>
+        <v>0.12782595596047686</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="7"/>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>5.1122689698774051E-2</v>
+        <v>5.112268969877342E-2</v>
       </c>
       <c r="M21">
         <v>0.99639999999999995</v>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>0.63012305664744495</v>
+        <v>0.63012305664744117</v>
       </c>
       <c r="AE21">
         <f t="shared" si="21"/>
-        <v>0.20747810435536296</v>
+        <v>0.20747810435536385</v>
       </c>
       <c r="AF21">
         <f t="shared" si="22"/>
-        <v>1.467724217650253</v>
+        <v>1.4677242176502463</v>
       </c>
       <c r="AG21">
         <f t="shared" si="23"/>
-        <v>0.17023078035300143</v>
+        <v>0.17023078035300232</v>
       </c>
       <c r="AH21">
         <f t="shared" si="6"/>
-        <v>1.3104680514734399</v>
+        <v>1.3104680514734341</v>
       </c>
       <c r="AI21">
         <f t="shared" si="24"/>
-        <v>0.17858194671133676</v>
+        <v>0.1785819467113372</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="7"/>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="L22">
-        <v>9.2287709533994303E-2</v>
+        <v>9.2287709533993623E-2</v>
       </c>
       <c r="M22">
         <v>0.99639999999999995</v>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AD22">
         <f t="shared" si="5"/>
-        <v>0.8376011610028079</v>
+        <v>0.83760116100280502</v>
       </c>
       <c r="AE22">
         <f t="shared" si="21"/>
@@ -3964,19 +3964,19 @@
       </c>
       <c r="AF22">
         <f t="shared" si="22"/>
-        <v>1.6379549980032544</v>
+        <v>1.6379549980032486</v>
       </c>
       <c r="AG22">
         <f t="shared" si="23"/>
-        <v>-1.3631598373109899E-2</v>
+        <v>-1.3631598373109677E-2</v>
       </c>
       <c r="AH22">
         <f t="shared" si="6"/>
-        <v>1.4890499981847767</v>
+        <v>1.4890499981847714</v>
       </c>
       <c r="AI22">
         <f t="shared" si="24"/>
-        <v>1.4953149620912543E-2</v>
+        <v>1.4953149620912765E-2</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="7"/>
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>8.3891702010515615E-2</v>
+        <v>8.3891702010515004E-2</v>
       </c>
       <c r="M23">
         <v>0.99639999999999995</v>
@@ -4091,27 +4091,27 @@
       </c>
       <c r="AD23">
         <f t="shared" si="5"/>
-        <v>0.8003538370004466</v>
+        <v>0.80035383700044371</v>
       </c>
       <c r="AE23">
         <f t="shared" si="21"/>
-        <v>2.3615725629251405E-2</v>
+        <v>2.3615725629251516E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="22"/>
-        <v>1.6243233996301445</v>
+        <v>1.6243233996301389</v>
       </c>
       <c r="AG23">
         <f t="shared" si="23"/>
-        <v>-0.12682842005742545</v>
+        <v>-0.12682842005742612</v>
       </c>
       <c r="AH23">
         <f t="shared" si="6"/>
-        <v>1.5040031478056892</v>
+        <v>1.5040031478056841</v>
       </c>
       <c r="AI23">
         <f t="shared" si="24"/>
-        <v>-0.14264407546685387</v>
+        <v>-0.14264407546685431</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="7"/>
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="L24">
-        <v>8.9161607974532389E-2</v>
+        <v>8.9161607974531765E-2</v>
       </c>
       <c r="M24">
         <v>0.99639999999999995</v>
@@ -4226,15 +4226,15 @@
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
-        <v>0.823969562629698</v>
+        <v>0.82396956262969523</v>
       </c>
       <c r="AE24">
         <f t="shared" si="21"/>
-        <v>-0.15044414568667708</v>
+        <v>-0.15044414568667752</v>
       </c>
       <c r="AF24">
         <f t="shared" si="22"/>
-        <v>1.497494979572719</v>
+        <v>1.4974949795727128</v>
       </c>
       <c r="AG24">
         <f t="shared" si="23"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AH24">
         <f t="shared" si="6"/>
-        <v>1.3613590723388354</v>
+        <v>1.3613590723388298</v>
       </c>
       <c r="AI24">
         <f t="shared" si="24"/>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>5.8634657186067453E-2</v>
+        <v>5.863465718606687E-2</v>
       </c>
       <c r="M25">
         <v>0.99639999999999995</v>
@@ -4361,27 +4361,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="5"/>
-        <v>0.67352541694302093</v>
+        <v>0.67352541694301771</v>
       </c>
       <c r="AE25">
         <f t="shared" si="21"/>
-        <v>0.1287181592172284</v>
+        <v>0.12871815921722862</v>
       </c>
       <c r="AF25">
         <f t="shared" si="22"/>
-        <v>1.4757689931032703</v>
+        <v>1.475768993103264</v>
       </c>
       <c r="AG25">
         <f t="shared" si="23"/>
-        <v>0.1132740778046224</v>
+        <v>0.11327407780462284</v>
       </c>
       <c r="AH25">
         <f t="shared" si="6"/>
-        <v>1.3176508866993484</v>
+        <v>1.3176508866993428</v>
       </c>
       <c r="AI25">
         <f t="shared" si="24"/>
-        <v>0.12693372321691765</v>
+        <v>0.12693372321691787</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="7"/>
@@ -4425,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>8.4306654378290311E-2</v>
+        <v>8.4306654378289644E-2</v>
       </c>
       <c r="M26">
         <v>0.99639999999999995</v>
@@ -4496,27 +4496,27 @@
       </c>
       <c r="AD26">
         <f t="shared" si="5"/>
-        <v>0.80224357616024933</v>
+        <v>0.80224357616024633</v>
       </c>
       <c r="AE26">
         <f t="shared" si="21"/>
-        <v>-1.5444081412605892E-2</v>
+        <v>-1.544408141260567E-2</v>
       </c>
       <c r="AF26">
         <f t="shared" si="22"/>
-        <v>1.5890430709078927</v>
+        <v>1.5890430709078869</v>
       </c>
       <c r="AG26">
         <f t="shared" si="23"/>
-        <v>-3.2763199552196198E-2</v>
+        <v>-3.2763199552196642E-2</v>
       </c>
       <c r="AH26">
         <f t="shared" si="6"/>
-        <v>1.444584609916266</v>
+        <v>1.4445846099162607</v>
       </c>
       <c r="AI26">
         <f t="shared" si="24"/>
-        <v>-5.5049010491537098E-2</v>
+        <v>-5.504901049153732E-2</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="7"/>
@@ -4560,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="L27">
-        <v>8.0949510477921441E-2</v>
+        <v>8.0949510477920858E-2</v>
       </c>
       <c r="M27">
         <v>0.99639999999999995</v>
@@ -4631,15 +4631,15 @@
       </c>
       <c r="AD27">
         <f t="shared" si="5"/>
-        <v>0.78679949474764344</v>
+        <v>0.78679949474764066</v>
       </c>
       <c r="AE27">
         <f t="shared" si="21"/>
-        <v>-1.7319118139590528E-2</v>
+        <v>-1.7319118139590972E-2</v>
       </c>
       <c r="AF27">
         <f t="shared" si="22"/>
-        <v>1.5562798713556965</v>
+        <v>1.5562798713556902</v>
       </c>
       <c r="AG27">
         <f t="shared" si="23"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="AH27">
         <f t="shared" si="6"/>
-        <v>1.3895355994247289</v>
+        <v>1.3895355994247234</v>
       </c>
       <c r="AI27">
         <f t="shared" si="24"/>
@@ -4695,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>7.72765330469566E-2</v>
+        <v>7.7276533046955934E-2</v>
       </c>
       <c r="M28">
         <v>0.99639999999999995</v>
@@ -4766,27 +4766,27 @@
       </c>
       <c r="AD28">
         <f t="shared" si="5"/>
-        <v>0.76948037660805291</v>
+        <v>0.76948037660804969</v>
       </c>
       <c r="AE28">
         <f t="shared" si="21"/>
-        <v>1.9986380717376462E-2</v>
+        <v>1.9986380717376906E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="22"/>
-        <v>1.5589471339334824</v>
+        <v>1.5589471339334762</v>
       </c>
       <c r="AG28">
         <f t="shared" si="23"/>
-        <v>9.4387251000179972E-2</v>
+        <v>9.4387251000180861E-2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="6"/>
-        <v>1.3674974859065636</v>
+        <v>1.3674974859065581</v>
       </c>
       <c r="AI28">
         <f t="shared" si="24"/>
-        <v>8.279583421068426E-2</v>
+        <v>8.2795834210685149E-2</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="7"/>
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>8.1523768059570872E-2</v>
+        <v>8.1523768059570262E-2</v>
       </c>
       <c r="M29">
         <v>0.99639999999999995</v>
@@ -4901,15 +4901,15 @@
       </c>
       <c r="AD29">
         <f t="shared" si="5"/>
-        <v>0.78946675732542937</v>
+        <v>0.78946675732542659</v>
       </c>
       <c r="AE29">
         <f t="shared" si="21"/>
-        <v>7.4400870282803511E-2</v>
+        <v>7.4400870282803733E-2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="22"/>
-        <v>1.6533343849336624</v>
+        <v>1.653334384933657</v>
       </c>
       <c r="AG29">
         <f t="shared" si="23"/>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="AH29">
         <f t="shared" si="6"/>
-        <v>1.4502933201172479</v>
+        <v>1.4502933201172432</v>
       </c>
       <c r="AI29">
         <f t="shared" si="24"/>
@@ -4965,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>9.8487899350592975E-2</v>
+        <v>9.8487899350592337E-2</v>
       </c>
       <c r="M30">
         <v>0.99639999999999995</v>
@@ -5036,27 +5036,27 @@
       </c>
       <c r="AD30">
         <f t="shared" si="5"/>
-        <v>0.86386762760823288</v>
+        <v>0.86386762760823033</v>
       </c>
       <c r="AE30">
         <f t="shared" si="21"/>
-        <v>-9.8610639419012602E-2</v>
+        <v>-9.8610639419012824E-2</v>
       </c>
       <c r="AF30">
         <f t="shared" si="22"/>
-        <v>1.629124615797453</v>
+        <v>1.6291246157974477</v>
       </c>
       <c r="AG30">
         <f t="shared" si="23"/>
-        <v>-0.11277002672096703</v>
+        <v>-0.11277002672096748</v>
       </c>
       <c r="AH30">
         <f t="shared" si="6"/>
-        <v>1.4290566805240816</v>
+        <v>1.429056680524077</v>
       </c>
       <c r="AI30">
         <f t="shared" si="24"/>
-        <v>-9.8921076071023517E-2</v>
+        <v>-9.8921076071023961E-2</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="7"/>
@@ -5100,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>7.6395437235830407E-2</v>
+        <v>7.6395437235829811E-2</v>
       </c>
       <c r="M31">
         <v>0.99639999999999995</v>
@@ -5171,15 +5171,15 @@
       </c>
       <c r="AD31">
         <f t="shared" si="5"/>
-        <v>0.76525698818922028</v>
+        <v>0.7652569881892175</v>
       </c>
       <c r="AE31">
         <f t="shared" si="21"/>
-        <v>-1.4159387301954429E-2</v>
+        <v>-1.4159387301954651E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" si="22"/>
-        <v>1.516354589076486</v>
+        <v>1.5163545890764802</v>
       </c>
       <c r="AG31">
         <f t="shared" si="23"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="AH31">
         <f t="shared" si="6"/>
-        <v>1.3301356044530581</v>
+        <v>1.330135604453053</v>
       </c>
       <c r="AI31">
         <f t="shared" si="24"/>
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>7.348285394335187E-2</v>
+        <v>7.3482853943351259E-2</v>
       </c>
       <c r="M32">
         <v>0.99639999999999995</v>
@@ -5306,27 +5306,27 @@
       </c>
       <c r="AD32">
         <f t="shared" si="5"/>
-        <v>0.75109760088726585</v>
+        <v>0.75109760088726285</v>
       </c>
       <c r="AE32">
         <f t="shared" si="21"/>
-        <v>1.1300046770838068E-2</v>
+        <v>1.1300046770838401E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="22"/>
-        <v>1.5134952485453699</v>
+        <v>1.5134952485453641</v>
       </c>
       <c r="AG32">
         <f t="shared" si="23"/>
-        <v>-4.7213507077192851E-3</v>
+        <v>-4.721350707718619E-3</v>
       </c>
       <c r="AH32">
         <f t="shared" si="6"/>
-        <v>1.3513350433440801</v>
+        <v>1.3513350433440749</v>
       </c>
       <c r="AI32">
         <f t="shared" si="24"/>
-        <v>4.5677825024114771E-2</v>
+        <v>4.5677825024115215E-2</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="7"/>
@@ -5370,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>7.5802141697392716E-2</v>
+        <v>7.5802141697392161E-2</v>
       </c>
       <c r="M33">
         <v>0.99639999999999995</v>
@@ -5441,27 +5441,27 @@
       </c>
       <c r="AD33">
         <f t="shared" si="5"/>
-        <v>0.76239764765810392</v>
+        <v>0.76239764765810125</v>
       </c>
       <c r="AE33">
         <f t="shared" si="21"/>
-        <v>-1.6021397478557353E-2</v>
+        <v>-1.602139747855702E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" si="22"/>
-        <v>1.5087738978376506</v>
+        <v>1.5087738978376455</v>
       </c>
       <c r="AG33">
         <f t="shared" si="23"/>
-        <v>-0.15226867416914325</v>
+        <v>-0.15226867416914391</v>
       </c>
       <c r="AH33">
         <f t="shared" si="6"/>
-        <v>1.3970128683681948</v>
+        <v>1.3970128683681902</v>
       </c>
       <c r="AI33">
         <f t="shared" si="24"/>
-        <v>-0.16382630139682464</v>
+        <v>-0.1638263013968253</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="7"/>
@@ -5505,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>7.2525775177172874E-2</v>
+        <v>7.2525775177172402E-2</v>
       </c>
       <c r="M34">
         <v>0.99639999999999995</v>
@@ -5576,27 +5576,27 @@
       </c>
       <c r="AD34">
         <f t="shared" si="5"/>
-        <v>0.74637625017954656</v>
+        <v>0.74637625017954423</v>
       </c>
       <c r="AE34">
         <f t="shared" si="21"/>
-        <v>-0.13624727669058578</v>
+        <v>-0.13624727669058689</v>
       </c>
       <c r="AF34">
         <f t="shared" si="22"/>
-        <v>1.3565052236685073</v>
+        <v>1.3565052236685016</v>
       </c>
       <c r="AG34">
         <f t="shared" si="23"/>
-        <v>1.9303879123400147E-2</v>
+        <v>1.9303879123399703E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" ref="AH34:AH65" si="30">AF34/P34</f>
-        <v>1.2331865669713702</v>
+        <v>1.2331865669713649</v>
       </c>
       <c r="AI34">
         <f t="shared" si="24"/>
-        <v>-2.6336476803030084E-2</v>
+        <v>-2.6336476803030306E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" ref="AJ34:AJ65" si="31">60 / N34</f>
@@ -5640,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>4.7849200660646352E-2</v>
+        <v>4.7849200660645803E-2</v>
       </c>
       <c r="M35">
         <v>0.99639999999999995</v>
@@ -5711,27 +5711,27 @@
       </c>
       <c r="AD35">
         <f t="shared" si="5"/>
-        <v>0.61012897348896078</v>
+        <v>0.61012897348895734</v>
       </c>
       <c r="AE35">
         <f t="shared" si="21"/>
-        <v>0.15555115581398593</v>
+        <v>0.1555511558139866</v>
       </c>
       <c r="AF35">
         <f t="shared" si="22"/>
-        <v>1.3758091027919075</v>
+        <v>1.3758091027919013</v>
       </c>
       <c r="AG35">
         <f t="shared" si="23"/>
-        <v>0.16538263898534056</v>
+        <v>0.16538263898534122</v>
       </c>
       <c r="AH35">
         <f t="shared" si="30"/>
-        <v>1.2068500901683401</v>
+        <v>1.2068500901683346</v>
       </c>
       <c r="AI35">
         <f t="shared" si="24"/>
-        <v>0.14507249033801806</v>
+        <v>0.14507249033801872</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="31"/>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>7.6483457645392855E-2</v>
+        <v>7.64834576453923E-2</v>
       </c>
       <c r="M36">
         <v>0.99639999999999995</v>
@@ -5846,23 +5846,23 @@
       </c>
       <c r="AD36">
         <f t="shared" si="5"/>
-        <v>0.76568012930294671</v>
+        <v>0.76568012930294393</v>
       </c>
       <c r="AE36">
         <f t="shared" si="21"/>
-        <v>9.8314831713545159E-3</v>
+        <v>9.8314831713546269E-3</v>
       </c>
       <c r="AF36">
         <f t="shared" si="22"/>
-        <v>1.541191741777248</v>
+        <v>1.5411917417772425</v>
       </c>
       <c r="AG36">
         <f t="shared" si="23"/>
-        <v>-1.917837926745225E-2</v>
+        <v>-1.9178379267452472E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" si="30"/>
-        <v>1.3519225805063582</v>
+        <v>1.3519225805063533</v>
       </c>
       <c r="AI36">
         <f t="shared" si="24"/>
@@ -5910,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>7.8544676580574985E-2</v>
+        <v>7.8544676580574416E-2</v>
       </c>
       <c r="M37">
         <v>0.99639999999999995</v>
@@ -5981,27 +5981,27 @@
       </c>
       <c r="AD37">
         <f t="shared" si="5"/>
-        <v>0.77551161247430123</v>
+        <v>0.77551161247429856</v>
       </c>
       <c r="AE37">
         <f t="shared" si="21"/>
-        <v>-2.9009862438806544E-2</v>
+        <v>-2.900986243880721E-2</v>
       </c>
       <c r="AF37">
         <f t="shared" si="22"/>
-        <v>1.5220133625097958</v>
+        <v>1.52201336250979</v>
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="23"/>
-        <v>-1.5220133625097958</v>
+        <v>-1.52201336250979</v>
       </c>
       <c r="AH37">
         <f t="shared" si="30"/>
-        <v>1.3120804849222378</v>
+        <v>1.3120804849222329</v>
       </c>
       <c r="AI37" s="1">
         <f t="shared" si="24"/>
-        <v>-1.3120804849222378</v>
+        <v>-1.3120804849222329</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="31"/>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>7.2551124751192894E-2</v>
+        <v>7.2551124751192242E-2</v>
       </c>
       <c r="M38">
         <v>0.99639999999999995</v>
@@ -6116,11 +6116,11 @@
       </c>
       <c r="AD38">
         <f t="shared" si="5"/>
-        <v>0.74650175003549468</v>
+        <v>0.74650175003549135</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" si="21"/>
-        <v>-0.74650175003549468</v>
+        <v>-0.74650175003549135</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1">
@@ -6246,12 +6246,12 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1">
         <f t="shared" si="21"/>
-        <v>0.58844909873835238</v>
+        <v>0.5884490987383485</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
         <f t="shared" si="23"/>
-        <v>1.231596466613504</v>
+        <v>1.2315964666134969</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" si="30"/>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="24"/>
-        <v>1.0095053005028722</v>
+        <v>1.0095053005028662</v>
       </c>
       <c r="AJ39" s="1">
         <f t="shared" si="31"/>
@@ -6303,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>4.4431053789828083E-2</v>
+        <v>4.4431053789827479E-2</v>
       </c>
       <c r="M40">
         <v>0.99639999999999995</v>
@@ -6374,27 +6374,27 @@
       </c>
       <c r="AD40">
         <f t="shared" ref="AD40:AD49" si="32">2*SQRT(2 * M40 * L40 - L40 * L40)</f>
-        <v>0.58844909873835238</v>
+        <v>0.5884490987383485</v>
       </c>
       <c r="AE40">
         <f t="shared" si="21"/>
-        <v>5.4698269136799094E-2</v>
+        <v>5.469826913679976E-2</v>
       </c>
       <c r="AF40">
         <f t="shared" si="22"/>
-        <v>1.231596466613504</v>
+        <v>1.2315964666134969</v>
       </c>
       <c r="AG40">
         <f t="shared" si="23"/>
-        <v>5.4586326435817956E-2</v>
+        <v>5.45863264358184E-2</v>
       </c>
       <c r="AH40">
         <f t="shared" si="30"/>
-        <v>1.0095053005028722</v>
+        <v>1.0095053005028662</v>
       </c>
       <c r="AI40">
         <f t="shared" si="24"/>
-        <v>8.0480117335536283E-2</v>
+        <v>8.0480117335536505E-2</v>
       </c>
       <c r="AJ40">
         <f t="shared" si="31"/>
@@ -6438,7 +6438,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>5.3318176509155629E-2</v>
+        <v>5.3318176509155067E-2</v>
       </c>
       <c r="M41">
         <v>0.99639999999999995</v>
@@ -6509,27 +6509,27 @@
       </c>
       <c r="AD41">
         <f t="shared" si="32"/>
-        <v>0.64314736787515148</v>
+        <v>0.64314736787514826</v>
       </c>
       <c r="AE41">
         <f t="shared" si="21"/>
-        <v>-1.1194270098113801E-4</v>
+        <v>-1.1194270098136005E-4</v>
       </c>
       <c r="AF41">
         <f t="shared" si="22"/>
-        <v>1.2861827930493219</v>
+        <v>1.2861827930493153</v>
       </c>
       <c r="AG41">
         <f t="shared" si="23"/>
-        <v>7.6881632002618883E-2</v>
+        <v>7.6881632002619771E-2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="30"/>
-        <v>1.0899854178384085</v>
+        <v>1.0899854178384027</v>
       </c>
       <c r="AI41">
         <f t="shared" si="24"/>
-        <v>8.5070120999471532E-2</v>
+        <v>8.5070120999472421E-2</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="31"/>
@@ -6573,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>5.329909315451907E-2</v>
+        <v>5.3299093154518487E-2</v>
       </c>
       <c r="M42">
         <v>0.99639999999999995</v>
@@ -6644,27 +6644,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="32"/>
-        <v>0.64303542517417034</v>
+        <v>0.6430354251741669</v>
       </c>
       <c r="AE42">
         <f t="shared" si="21"/>
-        <v>7.6993574703600243E-2</v>
+        <v>7.6993574703601131E-2</v>
       </c>
       <c r="AF42">
         <f t="shared" si="22"/>
-        <v>1.3630644250519408</v>
+        <v>1.363064425051935</v>
       </c>
       <c r="AG42">
         <f t="shared" si="23"/>
-        <v>0.12844769254262522</v>
+        <v>0.12844769254262589</v>
       </c>
       <c r="AH42">
         <f t="shared" si="30"/>
-        <v>1.1750555388378801</v>
+        <v>1.1750555388378752</v>
       </c>
       <c r="AI42">
         <f t="shared" si="24"/>
-        <v>0.15665170901441083</v>
+        <v>0.15665170901441128</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="31"/>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="L43">
-        <v>6.7313071971328214E-2</v>
+        <v>6.7313071971327729E-2</v>
       </c>
       <c r="M43">
         <v>0.99639999999999995</v>
@@ -6779,23 +6779,23 @@
       </c>
       <c r="AD43">
         <f t="shared" si="32"/>
-        <v>0.72002899987777058</v>
+        <v>0.72002899987776803</v>
       </c>
       <c r="AE43">
         <f t="shared" si="21"/>
-        <v>5.1454117839024871E-2</v>
+        <v>5.1454117839024982E-2</v>
       </c>
       <c r="AF43">
         <f t="shared" si="22"/>
-        <v>1.491512117594566</v>
+        <v>1.4915121175945609</v>
       </c>
       <c r="AG43">
         <f t="shared" si="23"/>
-        <v>8.2528494222193327E-2</v>
+        <v>8.2528494222193549E-2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="30"/>
-        <v>1.3317072478522909</v>
+        <v>1.3317072478522864</v>
       </c>
       <c r="AI43">
         <f t="shared" si="24"/>
@@ -6843,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <v>7.7696342790835926E-2</v>
+        <v>7.7696342790835413E-2</v>
       </c>
       <c r="M44">
         <v>0.99639999999999995</v>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="AD44">
         <f t="shared" si="32"/>
-        <v>0.77148311771679545</v>
+        <v>0.77148311771679301</v>
       </c>
       <c r="AE44">
         <f t="shared" si="21"/>
@@ -6922,19 +6922,19 @@
       </c>
       <c r="AF44">
         <f t="shared" si="22"/>
-        <v>1.5740406118167594</v>
+        <v>1.5740406118167545</v>
       </c>
       <c r="AG44">
         <f t="shared" si="23"/>
-        <v>6.1120335551765548E-2</v>
+        <v>6.1120335551765992E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="30"/>
-        <v>1.4053934034078208</v>
+        <v>1.4053934034078164</v>
       </c>
       <c r="AI44">
         <f t="shared" si="24"/>
-        <v>5.4571728171219247E-2</v>
+        <v>5.4571728171219691E-2</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="31"/>
@@ -6978,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="L45">
-        <v>8.4375698149442624E-2</v>
+        <v>8.4375698149442097E-2</v>
       </c>
       <c r="M45">
         <v>0.99639999999999995</v>
@@ -7049,15 +7049,15 @@
       </c>
       <c r="AD45">
         <f t="shared" si="32"/>
-        <v>0.80255749409996391</v>
+        <v>0.80255749409996147</v>
       </c>
       <c r="AE45">
         <f t="shared" si="21"/>
-        <v>3.0045959168597203E-2</v>
+        <v>3.0045959168597647E-2</v>
       </c>
       <c r="AF45">
         <f t="shared" si="22"/>
-        <v>1.6351609473685249</v>
+        <v>1.6351609473685205</v>
       </c>
       <c r="AG45">
         <f t="shared" si="23"/>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="AH45">
         <f t="shared" si="30"/>
-        <v>1.4599651315790401</v>
+        <v>1.4599651315790361</v>
       </c>
       <c r="AI45">
         <f t="shared" si="24"/>
@@ -7113,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>9.113438571802765E-2</v>
+        <v>9.1134385718027192E-2</v>
       </c>
       <c r="M46">
         <v>0.99639999999999995</v>
@@ -7184,15 +7184,15 @@
       </c>
       <c r="AD46">
         <f t="shared" si="32"/>
-        <v>0.83260345326856111</v>
+        <v>0.83260345326855911</v>
       </c>
       <c r="AE46">
         <f t="shared" si="21"/>
-        <v>-0.16545964725440399</v>
+        <v>-0.16545964725440454</v>
       </c>
       <c r="AF46">
         <f t="shared" si="22"/>
-        <v>1.4997472592827181</v>
+        <v>1.4997472592827137</v>
       </c>
       <c r="AG46">
         <f t="shared" si="23"/>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="AH46">
         <f t="shared" si="30"/>
-        <v>1.3390600529309982</v>
+        <v>1.3390600529309942</v>
       </c>
       <c r="AI46">
         <f t="shared" si="24"/>
@@ -7248,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="L47">
-        <v>5.749492198399727E-2</v>
+        <v>5.7494921983996812E-2</v>
       </c>
       <c r="M47">
         <v>0.99639999999999995</v>
@@ -7319,27 +7319,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="32"/>
-        <v>0.66714380601415713</v>
+        <v>0.66714380601415457</v>
       </c>
       <c r="AE47">
         <f t="shared" si="21"/>
-        <v>0.13466795232702422</v>
+        <v>0.13466795232702489</v>
       </c>
       <c r="AF47">
         <f t="shared" si="22"/>
-        <v>1.4689555643553385</v>
+        <v>1.468955564355334</v>
       </c>
       <c r="AG47">
         <f t="shared" si="23"/>
-        <v>7.5759480833739179E-3</v>
+        <v>7.5759480833736959E-3</v>
       </c>
       <c r="AH47">
         <f t="shared" si="30"/>
-        <v>1.335414149413944</v>
+        <v>1.33541414941394</v>
       </c>
       <c r="AI47">
         <f t="shared" si="24"/>
-        <v>6.8872255303398244E-3</v>
+        <v>6.8872255303396024E-3</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="31"/>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>8.4211732126280997E-2</v>
+        <v>8.4211732126280567E-2</v>
       </c>
       <c r="M48">
         <v>0.99639999999999995</v>
@@ -7454,27 +7454,27 @@
       </c>
       <c r="AD48">
         <f t="shared" si="32"/>
-        <v>0.80181175834118135</v>
+        <v>0.80181175834117946</v>
       </c>
       <c r="AE48">
         <f t="shared" si="21"/>
-        <v>-0.12709200424365041</v>
+        <v>-0.12709200424365119</v>
       </c>
       <c r="AF48">
         <f t="shared" si="22"/>
-        <v>1.4765315124387124</v>
+        <v>1.4765315124387077</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="23"/>
-        <v>-1.4765315124387124</v>
+        <v>-1.4765315124387077</v>
       </c>
       <c r="AH48">
         <f t="shared" si="30"/>
-        <v>1.3423013749442838</v>
+        <v>1.3423013749442796</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="24"/>
-        <v>-1.3423013749442838</v>
+        <v>-1.3423013749442796</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="31"/>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5.8849322245649573E-2</v>
+        <v>5.8849322245649087E-2</v>
       </c>
       <c r="M49">
         <v>0.99639999999999995</v>
@@ -7586,11 +7586,11 @@
       </c>
       <c r="AD49">
         <f t="shared" si="32"/>
-        <v>0.67471975409753093</v>
+        <v>0.67471975409752827</v>
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="21"/>
-        <v>-0.67471975409753093</v>
+        <v>-0.67471975409752827</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1">
@@ -7710,12 +7710,12 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1">
         <f t="shared" si="21"/>
-        <v>0.53707172077989385</v>
+        <v>0.53707172077988585</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1">
         <f t="shared" si="23"/>
-        <v>0.95853517732567539</v>
+        <v>0.9585351773256745</v>
       </c>
       <c r="AH50" s="1">
         <f t="shared" si="30"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="24"/>
-        <v>0.65653094337375029</v>
+        <v>0.65653094337374973</v>
       </c>
       <c r="AJ50" s="1">
         <f t="shared" si="31"/>
@@ -7767,7 +7767,7 @@
         <v>3</v>
       </c>
       <c r="L51">
-        <v>3.6868108041931247E-2</v>
+        <v>3.6868108041930137E-2</v>
       </c>
       <c r="M51">
         <v>0.99639999999999995</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="Q51">
         <f t="shared" si="13"/>
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="R51">
         <f t="shared" si="14"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="U51">
         <f t="shared" si="16"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V51">
         <f t="shared" si="26"/>
@@ -7838,27 +7838,27 @@
       </c>
       <c r="AD51">
         <f t="shared" ref="AD51:AD79" si="33">2*SQRT(2 * M51 * L51 - L51 * L51)</f>
-        <v>0.53707172077989385</v>
+        <v>0.53707172077988585</v>
       </c>
       <c r="AE51">
         <f t="shared" si="21"/>
-        <v>-0.11560826423411225</v>
+        <v>-0.11560826423409715</v>
       </c>
       <c r="AF51">
         <f t="shared" si="22"/>
-        <v>0.95853517732567539</v>
+        <v>0.9585351773256745</v>
       </c>
       <c r="AG51">
         <f t="shared" si="23"/>
-        <v>0.11779213152284429</v>
+        <v>0.12111272667559492</v>
       </c>
       <c r="AH51">
         <f t="shared" si="30"/>
-        <v>0.65653094337375029</v>
+        <v>0.65653094337374973</v>
       </c>
       <c r="AI51">
         <f t="shared" si="24"/>
-        <v>0.24040848066668286</v>
+        <v>0.2284263549879465</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="31"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="9"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="L52">
-        <v>2.2539076305491911E-2</v>
+        <v>2.2539076305492681E-2</v>
       </c>
       <c r="M52">
         <v>0.99639999999999995</v>
@@ -7913,15 +7913,15 @@
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P52">
         <f t="shared" si="12"/>
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q52">
         <f t="shared" si="13"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="R52">
         <f t="shared" si="14"/>
@@ -7933,11 +7933,11 @@
       </c>
       <c r="T52">
         <f t="shared" si="25"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="U52">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V52">
         <f t="shared" si="26"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="Y52">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z52">
         <f t="shared" si="28"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="AA52">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB52">
         <f t="shared" si="29"/>
@@ -7969,31 +7969,31 @@
       </c>
       <c r="AC52">
         <f t="shared" si="20"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD52">
         <f t="shared" si="33"/>
-        <v>0.4214634565457816</v>
+        <v>0.42146345654578871</v>
       </c>
       <c r="AE52">
         <f t="shared" si="21"/>
-        <v>0.23340039575695654</v>
+        <v>0.23672099090969195</v>
       </c>
       <c r="AF52">
         <f t="shared" si="22"/>
-        <v>1.0763273088485197</v>
+        <v>1.0796479040012694</v>
       </c>
       <c r="AG52">
         <f t="shared" si="23"/>
-        <v>0.2890448880844585</v>
+        <v>0.39178786401663857</v>
       </c>
       <c r="AH52">
         <f t="shared" si="30"/>
-        <v>0.89693942404043314</v>
+        <v>0.88495729836169623</v>
       </c>
       <c r="AI52">
         <f t="shared" si="24"/>
-        <v>0.28010557331558261</v>
+        <v>0.38352181199856927</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="31"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I53">
         <f t="shared" si="9"/>
@@ -8037,18 +8037,18 @@
         <v>3</v>
       </c>
       <c r="L53">
-        <v>5.533608413838096E-2</v>
+        <v>5.5915407738153892E-2</v>
       </c>
       <c r="M53">
         <v>0.99639999999999995</v>
       </c>
       <c r="N53">
         <f t="shared" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="P53">
         <f t="shared" si="12"/>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="Q53">
         <f t="shared" si="13"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-3.9999999999999813E-2</v>
       </c>
       <c r="R53">
         <f t="shared" si="14"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="S53">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T53">
         <f t="shared" si="25"/>
@@ -8080,19 +8080,19 @@
       </c>
       <c r="W53">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="X53">
         <f t="shared" si="27"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y53">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="Z53">
         <f t="shared" si="28"/>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA53">
         <f t="shared" si="19"/>
@@ -8100,39 +8100,39 @@
       </c>
       <c r="AB53">
         <f t="shared" si="29"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AC53">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD53">
         <f t="shared" si="33"/>
-        <v>0.65486385230273814</v>
+        <v>0.65818444745548066</v>
       </c>
       <c r="AE53">
         <f t="shared" si="21"/>
-        <v>5.5644492327501904E-2</v>
+        <v>0.15506687310694678</v>
       </c>
       <c r="AF53">
         <f t="shared" si="22"/>
-        <v>1.3653721969329782</v>
+        <v>1.471435768017908</v>
       </c>
       <c r="AG53">
         <f t="shared" si="23"/>
-        <v>6.5257672859472704E-2</v>
+        <v>6.1937077706732735E-2</v>
       </c>
       <c r="AH53">
         <f t="shared" si="30"/>
-        <v>1.1770449973560158</v>
+        <v>1.2684791103602655</v>
       </c>
       <c r="AI53">
         <f t="shared" si="24"/>
-        <v>7.7893484918064138E-2</v>
+        <v>0.10060378760816358</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="31"/>
-        <v>103.44827586206897</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
@@ -8149,7 +8149,7 @@
         <v>28</v>
       </c>
       <c r="E54">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>130</v>
@@ -8172,34 +8172,34 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <v>6.5482477846345935E-2</v>
+        <v>8.6747026388157761E-2</v>
       </c>
       <c r="M54">
         <v>0.99639999999999995</v>
       </c>
       <c r="N54">
         <f t="shared" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <f t="shared" si="12"/>
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Q54">
         <f t="shared" si="13"/>
-        <v>-1.9999999999999796E-2</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <f t="shared" si="14"/>
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="S54">
         <f t="shared" si="15"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <f t="shared" si="25"/>
@@ -8211,11 +8211,11 @@
       </c>
       <c r="V54">
         <f t="shared" si="26"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W54">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="X54">
         <f t="shared" si="27"/>
@@ -8227,11 +8227,11 @@
       </c>
       <c r="Z54">
         <f t="shared" si="28"/>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA54">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB54">
         <f t="shared" si="29"/>
@@ -8243,31 +8243,31 @@
       </c>
       <c r="AD54">
         <f t="shared" si="33"/>
-        <v>0.71050834463024004</v>
+        <v>0.81325132056242744</v>
       </c>
       <c r="AE54">
         <f t="shared" si="21"/>
-        <v>9.6131805319707997E-3</v>
+        <v>-9.3129795400214155E-2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="22"/>
-        <v>1.4306298697924509</v>
+        <v>1.5333728457246407</v>
       </c>
       <c r="AG54">
         <f t="shared" si="23"/>
-        <v>6.2815199459014481E-2</v>
+        <v>-3.9927776473170695E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="30"/>
-        <v>1.2549384822740799</v>
+        <v>1.3690828979684291</v>
       </c>
       <c r="AI54">
         <f t="shared" si="24"/>
-        <v>7.8494615271871293E-2</v>
+        <v>-3.5649800422473898E-2</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="31"/>
-        <v>103.44827586206897</v>
+        <v>107.14285714285714</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="L55">
-        <v>6.7330999737095498E-2</v>
+        <v>6.7330999737095984E-2</v>
       </c>
       <c r="M55">
         <v>0.99639999999999995</v>
@@ -8378,15 +8378,15 @@
       </c>
       <c r="AD55">
         <f t="shared" si="33"/>
-        <v>0.72012152516221084</v>
+        <v>0.72012152516221328</v>
       </c>
       <c r="AE55">
         <f t="shared" si="21"/>
-        <v>5.3202018927043793E-2</v>
+        <v>5.320201892704346E-2</v>
       </c>
       <c r="AF55">
         <f t="shared" si="22"/>
-        <v>1.4934450692514654</v>
+        <v>1.49344506925147</v>
       </c>
       <c r="AG55">
         <f t="shared" si="23"/>
@@ -8394,11 +8394,11 @@
       </c>
       <c r="AH55">
         <f t="shared" si="30"/>
-        <v>1.3334330975459512</v>
+        <v>1.3334330975459552</v>
       </c>
       <c r="AI55">
         <f t="shared" si="24"/>
-        <v>-6.3884530755922153E-2</v>
+        <v>-6.3884530755921931E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="31"/>
@@ -8442,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="L56">
-        <v>7.8083260503594723E-2</v>
+        <v>7.8083260503595181E-2</v>
       </c>
       <c r="M56">
         <v>0.99639999999999995</v>
@@ -8513,27 +8513,27 @@
       </c>
       <c r="AD56">
         <f t="shared" si="33"/>
-        <v>0.77332354408925463</v>
+        <v>0.77332354408925674</v>
       </c>
       <c r="AE56">
         <f t="shared" si="21"/>
-        <v>-9.9361722037876188E-2</v>
+        <v>-9.9361722037875744E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="22"/>
-        <v>1.4472853661406331</v>
+        <v>1.4472853661406377</v>
       </c>
       <c r="AG56">
         <f t="shared" si="23"/>
-        <v>-3.8298947612205758E-2</v>
+        <v>-3.8298947612206202E-2</v>
       </c>
       <c r="AH56">
         <f t="shared" si="30"/>
-        <v>1.269548566790029</v>
+        <v>1.2695485667900333</v>
       </c>
       <c r="AI56">
         <f t="shared" si="24"/>
-        <v>-1.1524978818219012E-2</v>
+        <v>-1.1524978818219456E-2</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="31"/>
@@ -8577,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>5.8713044985536492E-2</v>
+        <v>5.8713044985536943E-2</v>
       </c>
       <c r="M57">
         <v>0.99639999999999995</v>
@@ -8648,27 +8648,27 @@
       </c>
       <c r="AD57">
         <f t="shared" si="33"/>
-        <v>0.67396182205137845</v>
+        <v>0.673961822051381</v>
       </c>
       <c r="AE57">
         <f t="shared" si="21"/>
-        <v>6.106277442567043E-2</v>
+        <v>6.1062774425669542E-2</v>
       </c>
       <c r="AF57">
         <f t="shared" si="22"/>
-        <v>1.4089864185284273</v>
+        <v>1.4089864185284315</v>
       </c>
       <c r="AG57">
         <f t="shared" si="23"/>
-        <v>-3.9922744840707347E-2</v>
+        <v>-3.9922744840707791E-2</v>
       </c>
       <c r="AH57">
         <f t="shared" si="30"/>
-        <v>1.25802358797181</v>
+        <v>1.2580235879718138</v>
       </c>
       <c r="AI57">
         <f t="shared" si="24"/>
-        <v>-1.3420248255701095E-2</v>
+        <v>-1.3420248255701317E-2</v>
       </c>
       <c r="AJ57">
         <f t="shared" si="31"/>
@@ -8712,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <v>7.0253321204768418E-2</v>
+        <v>7.0253321204768737E-2</v>
       </c>
       <c r="M58">
         <v>0.99639999999999995</v>
@@ -8783,27 +8783,27 @@
       </c>
       <c r="AD58">
         <f t="shared" si="33"/>
-        <v>0.73502459647704887</v>
+        <v>0.73502459647705054</v>
       </c>
       <c r="AE58">
         <f t="shared" si="21"/>
-        <v>-0.10098551926637767</v>
+        <v>-0.10098551926637733</v>
       </c>
       <c r="AF58">
         <f t="shared" si="22"/>
-        <v>1.36906367368772</v>
+        <v>1.3690636736877237</v>
       </c>
       <c r="AG58">
         <f t="shared" si="23"/>
-        <v>-1.5401371787238327E-2</v>
+        <v>-1.5401371787238771E-2</v>
       </c>
       <c r="AH58">
         <f t="shared" si="30"/>
-        <v>1.2446033397161089</v>
+        <v>1.2446033397161125</v>
       </c>
       <c r="AI58">
         <f t="shared" si="24"/>
-        <v>-3.5976284447821749E-2</v>
+        <v>-3.5976284447822415E-2</v>
       </c>
       <c r="AJ58">
         <f t="shared" si="31"/>
@@ -8847,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="L59">
-        <v>5.1777550477197211E-2</v>
+        <v>5.1777550477197537E-2</v>
       </c>
       <c r="M59">
         <v>0.99639999999999995</v>
@@ -8918,27 +8918,27 @@
       </c>
       <c r="AD59">
         <f t="shared" si="33"/>
-        <v>0.63403907721067121</v>
+        <v>0.63403907721067321</v>
       </c>
       <c r="AE59">
         <f t="shared" si="21"/>
-        <v>8.5584147479139228E-2</v>
+        <v>8.5584147479138561E-2</v>
       </c>
       <c r="AF59">
         <f t="shared" si="22"/>
-        <v>1.3536623019004816</v>
+        <v>1.353662301900485</v>
       </c>
       <c r="AG59">
         <f t="shared" si="23"/>
-        <v>-3.471632164194105E-2</v>
+        <v>-3.4716321641941494E-2</v>
       </c>
       <c r="AH59">
         <f t="shared" si="30"/>
-        <v>1.2086270552682872</v>
+        <v>1.2086270552682901</v>
       </c>
       <c r="AI59">
         <f t="shared" si="24"/>
-        <v>-5.1656897146760139E-2</v>
+        <v>-5.1656897146760583E-2</v>
       </c>
       <c r="AJ59">
         <f t="shared" si="31"/>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="L60">
-        <v>6.7234479965081972E-2</v>
+        <v>6.7234479965082236E-2</v>
       </c>
       <c r="M60">
         <v>0.99639999999999995</v>
@@ -9053,27 +9053,27 @@
       </c>
       <c r="AD60">
         <f t="shared" si="33"/>
-        <v>0.71962322468981044</v>
+        <v>0.71962322468981177</v>
       </c>
       <c r="AE60">
         <f t="shared" si="21"/>
-        <v>-0.12030046912108028</v>
+        <v>-0.12030046912107994</v>
       </c>
       <c r="AF60">
         <f t="shared" si="22"/>
-        <v>1.3189459802585406</v>
+        <v>1.3189459802585435</v>
       </c>
       <c r="AG60">
         <f t="shared" si="23"/>
-        <v>3.5411144381018111E-2</v>
+        <v>3.5411144381017667E-2</v>
       </c>
       <c r="AH60">
         <f t="shared" si="30"/>
-        <v>1.156970158121527</v>
+        <v>1.1569701581215295</v>
       </c>
       <c r="AI60">
         <f t="shared" si="24"/>
-        <v>5.2277274592364531E-2</v>
+        <v>5.2277274592364309E-2</v>
       </c>
       <c r="AJ60">
         <f t="shared" si="31"/>
@@ -9117,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="L61">
-        <v>4.612845003947634E-2</v>
+        <v>4.6128450039476597E-2</v>
       </c>
       <c r="M61">
         <v>0.99639999999999995</v>
@@ -9188,27 +9188,27 @@
       </c>
       <c r="AD61">
         <f t="shared" si="33"/>
-        <v>0.59932275556873016</v>
+        <v>0.59932275556873182</v>
       </c>
       <c r="AE61">
         <f t="shared" si="21"/>
-        <v>0.15571161350209839</v>
+        <v>0.15571161350209761</v>
       </c>
       <c r="AF61">
         <f t="shared" si="22"/>
-        <v>1.3543571246395587</v>
+        <v>1.3543571246395611</v>
       </c>
       <c r="AG61">
         <f t="shared" si="23"/>
-        <v>8.859035445793717E-2</v>
+        <v>8.8590354457936282E-2</v>
       </c>
       <c r="AH61">
         <f t="shared" si="30"/>
-        <v>1.2092474327138916</v>
+        <v>1.2092474327138938</v>
       </c>
       <c r="AI61">
         <f t="shared" si="24"/>
-        <v>0.1025230028292865</v>
+        <v>0.10252300282928561</v>
       </c>
       <c r="AJ61">
         <f t="shared" si="31"/>
@@ -9252,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="L62">
-        <v>7.4286267654334312E-2</v>
+        <v>7.4286267654334506E-2</v>
       </c>
       <c r="M62">
         <v>0.99639999999999995</v>
@@ -9323,27 +9323,27 @@
       </c>
       <c r="AD62">
         <f t="shared" si="33"/>
-        <v>0.75503436907082855</v>
+        <v>0.75503436907082944</v>
       </c>
       <c r="AE62">
         <f t="shared" si="21"/>
-        <v>-6.7121259044161219E-2</v>
+        <v>-6.7121259044161441E-2</v>
       </c>
       <c r="AF62">
         <f t="shared" si="22"/>
-        <v>1.4429474790974959</v>
+        <v>1.4429474790974974</v>
       </c>
       <c r="AG62">
         <f t="shared" si="23"/>
-        <v>9.05202798233673E-2</v>
+        <v>9.0520279823366634E-2</v>
       </c>
       <c r="AH62">
         <f t="shared" si="30"/>
-        <v>1.3117704355431781</v>
+        <v>1.3117704355431794</v>
       </c>
       <c r="AI62">
         <f t="shared" si="24"/>
-        <v>3.3376721404947629E-2</v>
+        <v>3.3376721404947185E-2</v>
       </c>
       <c r="AJ62">
         <f t="shared" si="31"/>
@@ -9387,7 +9387,7 @@
         <v>3</v>
       </c>
       <c r="L63">
-        <v>6.1249291149624602E-2</v>
+        <v>6.1249291149624727E-2</v>
       </c>
       <c r="M63">
         <v>0.99639999999999995</v>
@@ -9458,27 +9458,27 @@
       </c>
       <c r="AD63">
         <f t="shared" si="33"/>
-        <v>0.68791311002666733</v>
+        <v>0.687913110026668</v>
       </c>
       <c r="AE63">
         <f t="shared" si="21"/>
-        <v>0.15764153886752852</v>
+        <v>0.15764153886752807</v>
       </c>
       <c r="AF63">
         <f t="shared" si="22"/>
-        <v>1.5334677589208632</v>
+        <v>1.5334677589208641</v>
       </c>
       <c r="AG63">
         <f t="shared" si="23"/>
-        <v>7.9670721961478508E-2</v>
+        <v>7.9670721961478064E-2</v>
       </c>
       <c r="AH63">
         <f t="shared" si="30"/>
-        <v>1.3451471569481257</v>
+        <v>1.3451471569481266</v>
       </c>
       <c r="AI63">
         <f t="shared" si="24"/>
-        <v>9.5155058125393488E-2</v>
+        <v>9.5155058125393044E-2</v>
       </c>
       <c r="AJ63">
         <f t="shared" si="31"/>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="L64">
-        <v>9.4140450904866682E-2</v>
+        <v>9.4140450904866751E-2</v>
       </c>
       <c r="M64">
         <v>0.99639999999999995</v>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="AD64">
         <f t="shared" si="33"/>
-        <v>0.84555464889419585</v>
+        <v>0.84555464889419607</v>
       </c>
       <c r="AE64">
         <f t="shared" si="21"/>
@@ -9601,19 +9601,19 @@
       </c>
       <c r="AF64">
         <f t="shared" si="22"/>
-        <v>1.6131384808823417</v>
+        <v>1.6131384808823421</v>
       </c>
       <c r="AG64">
         <f t="shared" si="23"/>
-        <v>-9.8387720222572916E-2</v>
+        <v>-9.838772022257336E-2</v>
       </c>
       <c r="AH64">
         <f t="shared" si="30"/>
-        <v>1.4403022150735192</v>
+        <v>1.4403022150735196</v>
       </c>
       <c r="AI64">
         <f t="shared" si="24"/>
-        <v>-8.7846178770154326E-2</v>
+        <v>-8.784617877015477E-2</v>
       </c>
       <c r="AJ64">
         <f t="shared" si="31"/>
@@ -9657,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <v>7.6880165946596635E-2</v>
+        <v>7.6880165946596676E-2</v>
       </c>
       <c r="M65">
         <v>0.99639999999999995</v>
@@ -9728,11 +9728,11 @@
       </c>
       <c r="AD65">
         <f t="shared" si="33"/>
-        <v>0.76758383198814584</v>
+        <v>0.76758383198814606</v>
       </c>
       <c r="AE65">
         <f t="shared" si="21"/>
-        <v>-2.0416903316522905E-2</v>
+        <v>-2.0416903316523238E-2</v>
       </c>
       <c r="AF65">
         <f t="shared" si="22"/>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="AG65">
         <f t="shared" si="23"/>
-        <v>1.6678179983199648E-2</v>
+        <v>1.6678179983199204E-2</v>
       </c>
       <c r="AH65">
         <f t="shared" si="30"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="AI65">
         <f t="shared" si="24"/>
-        <v>-9.0973164411116691E-3</v>
+        <v>-9.0973164411121132E-3</v>
       </c>
       <c r="AJ65">
         <f t="shared" si="31"/>
@@ -9792,7 +9792,7 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>7.2685566219270623E-2</v>
+        <v>7.2685566219270609E-2</v>
       </c>
       <c r="M66">
         <v>0.99639999999999995</v>
@@ -9863,27 +9863,27 @@
       </c>
       <c r="AD66">
         <f t="shared" si="33"/>
-        <v>0.74716692867162293</v>
+        <v>0.74716692867162282</v>
       </c>
       <c r="AE66">
         <f t="shared" si="21"/>
-        <v>3.7095083299722664E-2</v>
+        <v>3.7095083299722442E-2</v>
       </c>
       <c r="AF66">
         <f t="shared" si="22"/>
-        <v>1.5314289406429684</v>
+        <v>1.531428940642968</v>
       </c>
       <c r="AG66">
         <f t="shared" si="23"/>
-        <v>5.2066340050770821E-2</v>
+        <v>5.2066340050770599E-2</v>
       </c>
       <c r="AH66">
         <f t="shared" ref="AH66:AH78" si="39">AF66/P66</f>
-        <v>1.3433587198622532</v>
+        <v>1.3433587198622527</v>
       </c>
       <c r="AI66">
         <f t="shared" si="24"/>
-        <v>7.0476352185728119E-2</v>
+        <v>7.0476352185727897E-2</v>
       </c>
       <c r="AJ66">
         <f t="shared" ref="AJ66:AJ80" si="40">60 / N66</f>
@@ -9927,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="L67">
-        <v>8.0405330722572235E-2</v>
+        <v>8.040533072257218E-2</v>
       </c>
       <c r="M67">
         <v>0.99639999999999995</v>
@@ -9998,27 +9998,27 @@
       </c>
       <c r="AD67">
         <f t="shared" si="33"/>
-        <v>0.7842620119713456</v>
+        <v>0.78426201197134526</v>
       </c>
       <c r="AE67">
         <f t="shared" ref="AE67:AE78" si="54">AD68-AD67</f>
-        <v>1.4971256751048045E-2</v>
+        <v>1.4971256751047934E-2</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF78" si="55">AD67+AD68</f>
-        <v>1.5834952806937392</v>
+        <v>1.5834952806937386</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG77" si="56">AF68-AF67</f>
-        <v>-6.4476341780217439E-2</v>
+        <v>-6.4476341780217883E-2</v>
       </c>
       <c r="AH67">
         <f t="shared" si="39"/>
-        <v>1.4138350720479813</v>
+        <v>1.4138350720479806</v>
       </c>
       <c r="AI67">
         <f t="shared" ref="AI67:AI77" si="57">AH68-AH67</f>
-        <v>-5.7568162303765602E-2</v>
+        <v>-5.7568162303765824E-2</v>
       </c>
       <c r="AJ67">
         <f t="shared" si="40"/>
@@ -10062,7 +10062,7 @@
         <v>3</v>
       </c>
       <c r="L68">
-        <v>8.3646196643459861E-2</v>
+        <v>8.3646196643459778E-2</v>
       </c>
       <c r="M68">
         <v>0.99639999999999995</v>
@@ -10133,27 +10133,27 @@
       </c>
       <c r="AD68">
         <f t="shared" si="33"/>
-        <v>0.79923326872239364</v>
+        <v>0.7992332687223932</v>
       </c>
       <c r="AE68">
         <f t="shared" si="54"/>
-        <v>-7.9447598531265484E-2</v>
+        <v>-7.9447598531265706E-2</v>
       </c>
       <c r="AF68">
         <f t="shared" si="55"/>
-        <v>1.5190189389135218</v>
+        <v>1.5190189389135207</v>
       </c>
       <c r="AG68">
         <f t="shared" si="56"/>
-        <v>-2.4009555986961306E-3</v>
+        <v>-2.4009555986967968E-3</v>
       </c>
       <c r="AH68">
         <f t="shared" si="39"/>
-        <v>1.3562669097442157</v>
+        <v>1.3562669097442148</v>
       </c>
       <c r="AI68">
         <f t="shared" si="57"/>
-        <v>-2.5900257713666663E-2</v>
+        <v>-2.590025771366733E-2</v>
       </c>
       <c r="AJ68">
         <f t="shared" si="40"/>
@@ -10197,7 +10197,7 @@
         <v>3</v>
       </c>
       <c r="L69">
-        <v>6.7265936881616042E-2</v>
+        <v>6.7265936881615904E-2</v>
       </c>
       <c r="M69">
         <v>0.99639999999999995</v>
@@ -10268,27 +10268,27 @@
       </c>
       <c r="AD69">
         <f t="shared" si="33"/>
-        <v>0.71978567019112816</v>
+        <v>0.71978567019112749</v>
       </c>
       <c r="AE69">
         <f t="shared" si="54"/>
-        <v>7.7046642932569243E-2</v>
+        <v>7.7046642932569021E-2</v>
       </c>
       <c r="AF69">
         <f t="shared" si="55"/>
-        <v>1.5166179833148257</v>
+        <v>1.5166179833148239</v>
       </c>
       <c r="AG69">
         <f t="shared" si="56"/>
-        <v>7.2160255218072455E-2</v>
+        <v>7.2160255218072233E-2</v>
       </c>
       <c r="AH69">
         <f t="shared" si="39"/>
-        <v>1.330366652030549</v>
+        <v>1.3303666520305475</v>
       </c>
       <c r="AI69">
         <f t="shared" si="57"/>
-        <v>6.3298469489537101E-2</v>
+        <v>6.3298469489536879E-2</v>
       </c>
       <c r="AJ69">
         <f t="shared" si="40"/>
@@ -10332,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="L70">
-        <v>8.3121550571522304E-2</v>
+        <v>8.3121550571522124E-2</v>
       </c>
       <c r="M70">
         <v>0.99639999999999995</v>
@@ -10403,23 +10403,23 @@
       </c>
       <c r="AD70">
         <f t="shared" si="33"/>
-        <v>0.7968323131236974</v>
+        <v>0.79683231312369651</v>
       </c>
       <c r="AE70">
         <f t="shared" si="54"/>
-        <v>-4.8863877144966761E-3</v>
+        <v>-4.8863877144967871E-3</v>
       </c>
       <c r="AF70">
         <f t="shared" si="55"/>
-        <v>1.5887782385328981</v>
+        <v>1.5887782385328961</v>
       </c>
       <c r="AG70">
         <f t="shared" si="56"/>
-        <v>-3.1634507450917448E-2</v>
+        <v>-3.163450745091767E-2</v>
       </c>
       <c r="AH70">
         <f t="shared" si="39"/>
-        <v>1.3936651215200861</v>
+        <v>1.3936651215200844</v>
       </c>
       <c r="AI70">
         <f t="shared" si="57"/>
@@ -10467,7 +10467,7 @@
         <v>3</v>
       </c>
       <c r="L71">
-        <v>8.2059596863979137E-2</v>
+        <v>8.2059596863978901E-2</v>
       </c>
       <c r="M71">
         <v>0.99639999999999995</v>
@@ -10538,27 +10538,27 @@
       </c>
       <c r="AD71">
         <f t="shared" si="33"/>
-        <v>0.79194592540920072</v>
+        <v>0.79194592540919972</v>
       </c>
       <c r="AE71">
         <f t="shared" si="54"/>
-        <v>-2.6748119736420661E-2</v>
+        <v>-2.6748119736421105E-2</v>
       </c>
       <c r="AF71">
         <f t="shared" si="55"/>
-        <v>1.5571437310819807</v>
+        <v>1.5571437310819785</v>
       </c>
       <c r="AG71">
         <f t="shared" si="56"/>
-        <v>-0.16074984549342952</v>
+        <v>-0.16074984549343041</v>
       </c>
       <c r="AH71">
         <f t="shared" si="39"/>
-        <v>1.3659155535806848</v>
+        <v>1.3659155535806831</v>
       </c>
       <c r="AI71">
         <f t="shared" si="57"/>
-        <v>-0.14100863639774519</v>
+        <v>-0.14100863639774608</v>
       </c>
       <c r="AJ71">
         <f t="shared" si="40"/>
@@ -10602,7 +10602,7 @@
         <v>3</v>
       </c>
       <c r="L72">
-        <v>7.6383130834879437E-2</v>
+        <v>7.6383130834879145E-2</v>
       </c>
       <c r="M72">
         <v>0.99639999999999995</v>
@@ -10673,27 +10673,27 @@
       </c>
       <c r="AD72">
         <f t="shared" si="33"/>
-        <v>0.76519780567278006</v>
+        <v>0.76519780567277862</v>
       </c>
       <c r="AE72">
         <f t="shared" si="54"/>
-        <v>-0.13400172575700886</v>
+        <v>-0.13400172575700919</v>
       </c>
       <c r="AF72">
         <f t="shared" si="55"/>
-        <v>1.3963938855885512</v>
+        <v>1.396393885588548</v>
       </c>
       <c r="AG72">
         <f t="shared" si="56"/>
-        <v>-2.2637614950606233E-2</v>
+        <v>-2.2637614950607121E-2</v>
       </c>
       <c r="AH72">
         <f t="shared" si="39"/>
-        <v>1.2249069171829396</v>
+        <v>1.224906917182937</v>
       </c>
       <c r="AI72">
         <f t="shared" si="57"/>
-        <v>-4.0634270081262969E-2</v>
+        <v>-4.0634270081263635E-2</v>
       </c>
       <c r="AJ72">
         <f t="shared" si="40"/>
@@ -10737,7 +10737,7 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>5.130167856738798E-2</v>
+        <v>5.1301678567387689E-2</v>
       </c>
       <c r="M73">
         <v>0.99639999999999995</v>
@@ -10808,27 +10808,27 @@
       </c>
       <c r="AD73">
         <f t="shared" si="33"/>
-        <v>0.6311960799157712</v>
+        <v>0.63119607991576943</v>
       </c>
       <c r="AE73">
         <f t="shared" si="54"/>
-        <v>0.11136411080640252</v>
+        <v>0.11136411080640207</v>
       </c>
       <c r="AF73">
         <f t="shared" si="55"/>
-        <v>1.3737562706379449</v>
+        <v>1.3737562706379409</v>
       </c>
       <c r="AG73">
         <f t="shared" si="56"/>
-        <v>0.16021235474869933</v>
+        <v>0.1602123547486991</v>
       </c>
       <c r="AH73">
         <f t="shared" si="39"/>
-        <v>1.1842726471016767</v>
+        <v>1.1842726471016733</v>
       </c>
       <c r="AI73">
         <f t="shared" si="57"/>
-        <v>0.13811409892129256</v>
+        <v>0.13811409892129234</v>
       </c>
       <c r="AJ73">
         <f t="shared" si="40"/>
@@ -10872,7 +10872,7 @@
         <v>3</v>
       </c>
       <c r="L74">
-        <v>7.1757338866163797E-2</v>
+        <v>7.1757338866163353E-2</v>
       </c>
       <c r="M74">
         <v>0.99639999999999995</v>
@@ -10943,27 +10943,27 @@
       </c>
       <c r="AD74">
         <f t="shared" si="33"/>
-        <v>0.74256019072217372</v>
+        <v>0.7425601907221715</v>
       </c>
       <c r="AE74">
         <f t="shared" si="54"/>
-        <v>4.884824394229681E-2</v>
+        <v>4.8848243942297143E-2</v>
       </c>
       <c r="AF74">
         <f t="shared" si="55"/>
-        <v>1.5339686253866442</v>
+        <v>1.53396862538664</v>
       </c>
       <c r="AG74">
         <f t="shared" si="56"/>
-        <v>3.7336720999001871E-2</v>
+        <v>3.7336720999001649E-2</v>
       </c>
       <c r="AH74">
         <f t="shared" si="39"/>
-        <v>1.3223867460229692</v>
+        <v>1.3223867460229657</v>
       </c>
       <c r="AI74">
         <f t="shared" si="57"/>
-        <v>5.5951277122334497E-2</v>
+        <v>5.5951277122334053E-2</v>
       </c>
       <c r="AJ74">
         <f t="shared" si="40"/>
@@ -11007,7 +11007,7 @@
         <v>3</v>
       </c>
       <c r="L75">
-        <v>8.1943258330125737E-2</v>
+        <v>8.1943258330125335E-2</v>
       </c>
       <c r="M75">
         <v>0.99639999999999995</v>
@@ -11078,27 +11078,27 @@
       </c>
       <c r="AD75">
         <f t="shared" si="33"/>
-        <v>0.79140843466447053</v>
+        <v>0.79140843466446864</v>
       </c>
       <c r="AE75">
         <f t="shared" si="54"/>
-        <v>-1.1511522943295049E-2</v>
+        <v>-1.1511522943295605E-2</v>
       </c>
       <c r="AF75">
         <f t="shared" si="55"/>
-        <v>1.5713053463856461</v>
+        <v>1.5713053463856417</v>
       </c>
       <c r="AG75">
         <f t="shared" si="56"/>
-        <v>-7.8782296116928219E-3</v>
+        <v>-7.878229611693488E-3</v>
       </c>
       <c r="AH75">
         <f t="shared" si="39"/>
-        <v>1.3783380231453037</v>
+        <v>1.3783380231452997</v>
       </c>
       <c r="AI75">
         <f t="shared" si="57"/>
-        <v>-6.9107277295550329E-3</v>
+        <v>-6.910727729555699E-3</v>
       </c>
       <c r="AJ75">
         <f t="shared" si="40"/>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="L76">
-        <v>7.9474069637059927E-2</v>
+        <v>7.94740696370594E-2</v>
       </c>
       <c r="M76">
         <v>0.99639999999999995</v>
@@ -11213,23 +11213,23 @@
       </c>
       <c r="AD76">
         <f t="shared" si="33"/>
-        <v>0.77989691172117548</v>
+        <v>0.77989691172117304</v>
       </c>
       <c r="AE76">
         <f t="shared" si="54"/>
-        <v>3.6332933316023386E-3</v>
+        <v>3.6332933316022276E-3</v>
       </c>
       <c r="AF76">
         <f t="shared" si="55"/>
-        <v>1.5634271167739533</v>
+        <v>1.5634271167739482</v>
       </c>
       <c r="AG76">
         <f t="shared" si="56"/>
-        <v>-1.2270511595419586E-2</v>
+        <v>-1.2270511595420031E-2</v>
       </c>
       <c r="AH76">
         <f t="shared" si="39"/>
-        <v>1.3714272954157487</v>
+        <v>1.371427295415744</v>
       </c>
       <c r="AI76">
         <f t="shared" si="57"/>
@@ -11277,7 +11277,7 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>8.0248776433449284E-2</v>
+        <v>8.0248776433448743E-2</v>
       </c>
       <c r="M77">
         <v>0.99639999999999995</v>
@@ -11348,27 +11348,27 @@
       </c>
       <c r="AD77">
         <f t="shared" si="33"/>
-        <v>0.78353020505277782</v>
+        <v>0.78353020505277526</v>
       </c>
       <c r="AE77">
         <f t="shared" si="54"/>
-        <v>-1.5903804927022036E-2</v>
+        <v>-1.5903804927022369E-2</v>
       </c>
       <c r="AF77">
         <f t="shared" si="55"/>
-        <v>1.5511566051785337</v>
+        <v>1.5511566051785282</v>
       </c>
       <c r="AG77">
         <f t="shared" si="56"/>
-        <v>-5.6322340675072358E-2</v>
+        <v>-5.632234067507258E-2</v>
       </c>
       <c r="AH77">
         <f t="shared" si="39"/>
-        <v>1.3372039699814946</v>
+        <v>1.3372039699814899</v>
       </c>
       <c r="AI77">
         <f t="shared" si="57"/>
-        <v>-2.5945843224072229E-2</v>
+        <v>-2.5945843224072673E-2</v>
       </c>
       <c r="AJ77">
         <f t="shared" si="40"/>
@@ -11412,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="L78">
-        <v>7.6889049843617552E-2</v>
+        <v>7.6889049843616941E-2</v>
       </c>
       <c r="M78">
         <v>0.99639999999999995</v>
@@ -11477,20 +11477,20 @@
       </c>
       <c r="AD78">
         <f t="shared" si="33"/>
-        <v>0.76762640012575578</v>
+        <v>0.76762640012575289</v>
       </c>
       <c r="AE78">
         <f t="shared" si="54"/>
-        <v>-4.04185357480501E-2</v>
+        <v>-4.0418535748050211E-2</v>
       </c>
       <c r="AF78">
         <f t="shared" si="55"/>
-        <v>1.4948342645034614</v>
+        <v>1.4948342645034556</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78">
         <f t="shared" si="39"/>
-        <v>1.3112581267574224</v>
+        <v>1.3112581267574173</v>
       </c>
       <c r="AI78" s="1"/>
       <c r="AJ78">
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>6.8711937935598918E-2</v>
+        <v>6.8711937935598336E-2</v>
       </c>
       <c r="M79">
         <v>0.99639999999999995</v>
@@ -11579,7 +11579,7 @@
       <c r="AC79" s="1"/>
       <c r="AD79">
         <f t="shared" si="33"/>
-        <v>0.72720786437770568</v>
+        <v>0.72720786437770268</v>
       </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
